--- a/todo/todo-v3.xlsx
+++ b/todo/todo-v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\ITU\S5\INF309_Web-Avancée-Cloud\projet\projet-cloud-s5-v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\ITU\S5\INF309_Web-Avancée-Cloud\projet\exam-cloud-local\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
   <si>
     <t>Catégorie</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>Affichage badge avec photo de profil de l'user dans l'app mobile</t>
+  </si>
+  <si>
+    <t>Stephanie-2632</t>
+  </si>
+  <si>
+    <t>Stephan-2609</t>
+  </si>
+  <si>
+    <t>ZoTina-2597</t>
+  </si>
+  <si>
+    <t>NyHaritina-2716</t>
   </si>
 </sst>
 </file>
@@ -575,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +642,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
       <c r="D3">
         <v>20</v>
       </c>
@@ -648,6 +663,9 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4">
         <v>5</v>
       </c>
@@ -666,6 +684,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5">
         <v>45</v>
       </c>
@@ -684,6 +705,9 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
       <c r="D6">
         <v>45</v>
       </c>
@@ -702,6 +726,9 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
       <c r="D7">
         <v>30</v>
       </c>
@@ -720,6 +747,9 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
       <c r="D8">
         <v>45</v>
       </c>
@@ -738,6 +768,9 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
       <c r="D9">
         <v>60</v>
       </c>
@@ -756,6 +789,9 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
       <c r="D10">
         <v>45</v>
       </c>
@@ -774,6 +810,9 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
       <c r="D11">
         <v>45</v>
       </c>
@@ -792,6 +831,9 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
       <c r="D12">
         <v>45</v>
       </c>
@@ -810,6 +852,9 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
       <c r="D13">
         <v>60</v>
       </c>
@@ -828,6 +873,9 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
       <c r="D14">
         <v>45</v>
       </c>
@@ -846,6 +894,9 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
       <c r="D15">
         <v>45</v>
       </c>
@@ -864,6 +915,9 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
       <c r="D16">
         <v>45</v>
       </c>
@@ -882,6 +936,9 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
       <c r="D17">
         <v>60</v>
       </c>
@@ -900,6 +957,9 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
       <c r="D18">
         <v>60</v>
       </c>
@@ -918,6 +978,9 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
       <c r="D19">
         <v>60</v>
       </c>
@@ -936,6 +999,9 @@
       <c r="B20" t="s">
         <v>25</v>
       </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
       <c r="D20">
         <v>45</v>
       </c>
@@ -954,6 +1020,9 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
       <c r="D21">
         <v>120</v>
       </c>
@@ -972,6 +1041,9 @@
       <c r="B22" t="s">
         <v>28</v>
       </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
       <c r="D22">
         <v>120</v>
       </c>
@@ -990,6 +1062,9 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
       <c r="D23">
         <v>120</v>
       </c>
@@ -1008,6 +1083,9 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
       <c r="D24">
         <v>60</v>
       </c>
@@ -1026,6 +1104,9 @@
       <c r="B25" t="s">
         <v>32</v>
       </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
       <c r="D25">
         <v>45</v>
       </c>
@@ -1044,6 +1125,9 @@
       <c r="B26" t="s">
         <v>33</v>
       </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
       <c r="D26">
         <v>90</v>
       </c>
@@ -1062,6 +1146,9 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
       <c r="D27">
         <v>45</v>
       </c>
@@ -1080,6 +1167,9 @@
       <c r="B28" t="s">
         <v>36</v>
       </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
       <c r="D28">
         <v>120</v>
       </c>
@@ -1098,6 +1188,9 @@
       <c r="B29" t="s">
         <v>37</v>
       </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
       <c r="D29">
         <v>60</v>
       </c>
@@ -1116,6 +1209,9 @@
       <c r="B30" t="s">
         <v>38</v>
       </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
       <c r="D30">
         <v>120</v>
       </c>
@@ -1134,6 +1230,9 @@
       <c r="B31" t="s">
         <v>39</v>
       </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
       <c r="D31">
         <v>120</v>
       </c>
@@ -1152,6 +1251,9 @@
       <c r="B32" t="s">
         <v>40</v>
       </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
       <c r="D32">
         <v>120</v>
       </c>
@@ -1170,6 +1272,9 @@
       <c r="B33" t="s">
         <v>41</v>
       </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
       <c r="D33">
         <v>60</v>
       </c>
@@ -1188,6 +1293,9 @@
       <c r="B34" t="s">
         <v>66</v>
       </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
       <c r="D34">
         <v>60</v>
       </c>
@@ -1206,6 +1314,9 @@
       <c r="B35" t="s">
         <v>43</v>
       </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
       <c r="D35">
         <v>60</v>
       </c>
@@ -1224,6 +1335,9 @@
       <c r="B36" t="s">
         <v>44</v>
       </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
       <c r="D36">
         <v>60</v>
       </c>
@@ -1242,6 +1356,9 @@
       <c r="B37" t="s">
         <v>45</v>
       </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
       <c r="D37">
         <v>75</v>
       </c>
@@ -1260,6 +1377,9 @@
       <c r="B38" t="s">
         <v>46</v>
       </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
       <c r="D38">
         <v>60</v>
       </c>
@@ -1278,6 +1398,9 @@
       <c r="B39" t="s">
         <v>47</v>
       </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
       <c r="D39">
         <v>60</v>
       </c>
@@ -1296,6 +1419,9 @@
       <c r="B40" t="s">
         <v>48</v>
       </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
       <c r="D40">
         <v>60</v>
       </c>
@@ -1314,6 +1440,9 @@
       <c r="B41" t="s">
         <v>49</v>
       </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
       <c r="D41">
         <v>120</v>
       </c>
@@ -1332,6 +1461,9 @@
       <c r="B42" t="s">
         <v>50</v>
       </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
       <c r="D42">
         <v>120</v>
       </c>
@@ -1350,6 +1482,9 @@
       <c r="B43" t="s">
         <v>51</v>
       </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
       <c r="D43">
         <v>90</v>
       </c>
@@ -1368,6 +1503,9 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
       <c r="D44">
         <v>60</v>
       </c>
@@ -1386,6 +1524,9 @@
       <c r="B45" t="s">
         <v>55</v>
       </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
       <c r="D45">
         <v>60</v>
       </c>
@@ -1404,6 +1545,9 @@
       <c r="B46" t="s">
         <v>54</v>
       </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
       <c r="D46">
         <v>60</v>
       </c>
@@ -1422,6 +1566,9 @@
       <c r="B47" t="s">
         <v>57</v>
       </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
       <c r="D47">
         <v>45</v>
       </c>
@@ -1440,6 +1587,9 @@
       <c r="B48" t="s">
         <v>58</v>
       </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
       <c r="D48">
         <v>60</v>
       </c>
@@ -1458,6 +1608,9 @@
       <c r="B49" t="s">
         <v>59</v>
       </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
       <c r="D49">
         <v>60</v>
       </c>
@@ -1476,6 +1629,9 @@
       <c r="B50" t="s">
         <v>61</v>
       </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
       <c r="D50">
         <v>90</v>
       </c>
@@ -1494,6 +1650,9 @@
       <c r="B51" t="s">
         <v>62</v>
       </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
       <c r="D51">
         <v>60</v>
       </c>
@@ -1512,6 +1671,9 @@
       <c r="B52" t="s">
         <v>63</v>
       </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
       <c r="D52">
         <v>60</v>
       </c>
@@ -1530,6 +1692,9 @@
       <c r="B53" t="s">
         <v>64</v>
       </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
       <c r="D53">
         <v>60</v>
       </c>
@@ -1547,6 +1712,9 @@
       </c>
       <c r="B54" t="s">
         <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
       </c>
       <c r="D54">
         <v>60</v>
